--- a/results/FrequencyTables/26581162_sg155R.xlsx
+++ b/results/FrequencyTables/26581162_sg155R.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.189473684210526</v>
+        <v>0.127098321342926</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0303756994404476</v>
       </c>
       <c r="D2">
-        <v>0.789473684210526</v>
+        <v>0.856115107913669</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.008792965627498</v>
       </c>
       <c r="F2">
-        <v>0.189473684210526</v>
+        <v>0.0943245403677058</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0415667466027178</v>
       </c>
       <c r="H2">
-        <v>0.0421052631578947</v>
+        <v>0.0503597122302158</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.960831334932054</v>
       </c>
       <c r="J2">
-        <v>0.0105263157894737</v>
+        <v>0.113509192645883</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0135891286970424</v>
       </c>
       <c r="M2">
-        <v>0.91578947368421</v>
+        <v>0.968824940047962</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00399680255795364</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.980015987210232</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00799360511590727</v>
       </c>
       <c r="Q2">
-        <v>0.821052631578947</v>
+        <v>0.67066346922462</v>
       </c>
       <c r="R2">
-        <v>0.926315789473684</v>
+        <v>0.925659472422062</v>
       </c>
       <c r="S2">
-        <v>0.221052631578947</v>
+        <v>0.191846522781775</v>
       </c>
       <c r="T2">
-        <v>0.0421052631578947</v>
+        <v>0.157474020783373</v>
       </c>
       <c r="U2">
-        <v>0.189473684210526</v>
+        <v>0.0959232613908873</v>
       </c>
       <c r="V2">
-        <v>0.978947368421053</v>
+        <v>0.907274180655476</v>
       </c>
       <c r="W2">
-        <v>0.0210526315789474</v>
+        <v>0.00719424460431655</v>
       </c>
       <c r="X2">
-        <v>0.810526315789474</v>
+        <v>0.828137490007994</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.810526315789474</v>
+        <v>0.870503597122302</v>
       </c>
       <c r="C3">
-        <v>0.810526315789474</v>
+        <v>0.831334932054356</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00399680255795364</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.008792965627498</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00559552358113509</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00479616306954436</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00159872102318145</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00239808153477218</v>
       </c>
       <c r="J3">
-        <v>0.252631578947368</v>
+        <v>0.156674660271783</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.997601918465228</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.986410871302958</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00479616306954436</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00719424460431655</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00479616306954436</v>
       </c>
       <c r="P3">
-        <v>0.0105263157894737</v>
+        <v>0.0463629096722622</v>
       </c>
       <c r="Q3">
-        <v>0.0526315789473684</v>
+        <v>0.150279776179057</v>
       </c>
       <c r="R3">
-        <v>0.0105263157894737</v>
+        <v>0.0119904076738609</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00639488409272582</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.00799360511590727</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00719424460431655</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0679456434852118</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0423661071143086</v>
       </c>
       <c r="X3">
-        <v>0.0210526315789474</v>
+        <v>0.0327737809752198</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,31 +613,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.00159872102318145</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00559552358113509</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
+        <v>0.119904076738609</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.97761790567546</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0421052631578947</v>
+        <v>0.0455635491606715</v>
       </c>
       <c r="H4">
-        <v>0.957894736842105</v>
+        <v>0.945643485211831</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0359712230215827</v>
       </c>
       <c r="J4">
-        <v>0.642105263157895</v>
+        <v>0.568345323741007</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -646,40 +646,40 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0736842105263158</v>
+        <v>0.0207833733013589</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.985611510791367</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.0151878497202238</v>
       </c>
       <c r="P4">
-        <v>0.536842105263158</v>
+        <v>0.630695443645084</v>
       </c>
       <c r="Q4">
-        <v>0.126315789473684</v>
+        <v>0.176658673061551</v>
       </c>
       <c r="R4">
-        <v>0.0631578947368421</v>
+        <v>0.0343725019984013</v>
       </c>
       <c r="S4">
-        <v>0.715789473684211</v>
+        <v>0.781774580335731</v>
       </c>
       <c r="T4">
-        <v>0.947368421052632</v>
+        <v>0.828137490007994</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.0391686650679456</v>
       </c>
       <c r="V4">
-        <v>0.0210526315789474</v>
+        <v>0.0191846522781775</v>
       </c>
       <c r="W4">
-        <v>0.978947368421053</v>
+        <v>0.921662669864109</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.00719424460431655</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.000799360511590727</v>
       </c>
       <c r="C5">
-        <v>0.189473684210526</v>
+        <v>0.132693844924061</v>
       </c>
       <c r="D5">
-        <v>0.0105263157894737</v>
+        <v>0.0199840127897682</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00479616306954436</v>
       </c>
       <c r="F5">
-        <v>0.810526315789474</v>
+        <v>0.900079936051159</v>
       </c>
       <c r="G5">
-        <v>0.957894736842105</v>
+        <v>0.908073541167066</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00239808153477218</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000799360511590727</v>
       </c>
       <c r="J5">
-        <v>0.0947368421052632</v>
+        <v>0.161470823341327</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00239808153477218</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0105263157894737</v>
+        <v>0.00559552358113509</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.00319744204636291</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.452631578947368</v>
+        <v>0.314948041566747</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00159872102318145</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.0271782573940847</v>
       </c>
       <c r="S5">
-        <v>0.0631578947368421</v>
+        <v>0.0199840127897682</v>
       </c>
       <c r="T5">
-        <v>0.0105263157894737</v>
+        <v>0.00639488409272582</v>
       </c>
       <c r="U5">
-        <v>0.810526315789474</v>
+        <v>0.857713828936851</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00559552358113509</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0287769784172662</v>
       </c>
       <c r="X5">
-        <v>0.168421052631579</v>
+        <v>0.13189448441247</v>
       </c>
     </row>
   </sheetData>
